--- a/기술.xlsx
+++ b/기술.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장규석\Desktop\Pokemon-Gold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA630D-B432-4AD5-866C-51BFE3ED611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76015D25-FF1E-4F62-8A6A-951422FA7E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10095" yWindow="4620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -723,9 +723,6 @@
     <t>폭발펀치</t>
   </si>
   <si>
-    <t>메가폰</t>
-  </si>
-  <si>
     <t>용의숨결</t>
   </si>
   <si>
@@ -883,6 +880,10 @@
   </si>
   <si>
     <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,22 +1256,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q220" sqref="Q220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="12.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="7" customWidth="1"/>
     <col min="7" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1290,11 +1291,11 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1302,10 +1303,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="6">
         <v>40</v>
@@ -1319,7 +1320,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1327,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="6">
         <v>50</v>
@@ -1344,7 +1345,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1352,10 +1353,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="6">
         <v>15</v>
@@ -1369,7 +1370,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1377,10 +1378,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="6">
         <v>18</v>
@@ -1394,7 +1395,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1402,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="6">
         <v>80</v>
@@ -1419,7 +1420,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1427,10 +1428,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="6">
         <v>40</v>
@@ -1444,7 +1445,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1452,10 +1453,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="6">
         <v>75</v>
@@ -1469,7 +1470,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1477,10 +1478,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="6">
         <v>75</v>
@@ -1494,7 +1495,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1502,10 +1503,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="6">
         <v>75</v>
@@ -1519,7 +1520,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1527,10 +1528,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="6">
         <v>40</v>
@@ -1544,7 +1545,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1552,10 +1553,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="6">
         <v>55</v>
@@ -1569,7 +1570,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1577,10 +1578,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1594,7 +1595,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1602,10 +1603,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="6">
         <v>80</v>
@@ -1619,7 +1620,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1627,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1644,7 +1645,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1652,10 +1653,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E16" s="6">
         <v>50</v>
@@ -1669,7 +1670,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1677,10 +1678,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="6">
         <v>40</v>
@@ -1694,7 +1695,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1702,10 +1703,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="6">
         <v>60</v>
@@ -1719,7 +1720,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1727,10 +1728,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1744,7 +1745,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1752,10 +1753,10 @@
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="6">
         <v>90</v>
@@ -1769,7 +1770,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1777,10 +1778,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="6">
         <v>15</v>
@@ -1794,7 +1795,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1802,10 +1803,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" s="6">
         <v>80</v>
@@ -1819,7 +1820,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1827,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="6">
         <v>45</v>
@@ -1844,7 +1845,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1852,10 +1853,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" s="6">
         <v>65</v>
@@ -1869,7 +1870,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1877,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="6">
         <v>30</v>
@@ -1894,7 +1895,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1902,10 +1903,10 @@
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="6">
         <v>120</v>
@@ -1919,7 +1920,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1927,10 +1928,10 @@
         <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="6">
         <v>100</v>
@@ -1944,7 +1945,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1952,10 +1953,10 @@
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="6">
         <v>60</v>
@@ -1969,7 +1970,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1977,10 +1978,10 @@
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -1994,7 +1995,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2002,10 +2003,10 @@
         <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30" s="6">
         <v>70</v>
@@ -2019,7 +2020,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2027,10 +2028,10 @@
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="6">
         <v>65</v>
@@ -2044,7 +2045,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2052,10 +2053,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E32" s="6">
         <v>15</v>
@@ -2069,7 +2070,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2077,10 +2078,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
@@ -2094,7 +2095,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2102,10 +2103,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E34" s="6">
         <v>40</v>
@@ -2119,7 +2120,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2127,10 +2128,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E35" s="6">
         <v>85</v>
@@ -2144,7 +2145,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2152,10 +2153,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E36" s="6">
         <v>15</v>
@@ -2169,7 +2170,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2177,10 +2178,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="6">
         <v>90</v>
@@ -2194,7 +2195,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2202,10 +2203,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E38" s="6">
         <v>120</v>
@@ -2219,7 +2220,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2227,10 +2228,10 @@
         <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" s="6">
         <v>120</v>
@@ -2244,7 +2245,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2252,10 +2253,10 @@
         <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2269,7 +2270,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2277,10 +2278,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" s="6">
         <v>15</v>
@@ -2294,7 +2295,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2302,10 +2303,10 @@
         <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E42" s="6">
         <v>25</v>
@@ -2319,7 +2320,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2327,10 +2328,10 @@
         <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E43" s="6">
         <v>25</v>
@@ -2344,7 +2345,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2352,10 +2353,10 @@
         <v>49</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
@@ -2369,7 +2370,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2377,10 +2378,10 @@
         <v>50</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="6">
         <v>60</v>
@@ -2394,7 +2395,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2402,10 +2403,10 @@
         <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
@@ -2419,7 +2420,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2427,10 +2428,10 @@
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
@@ -2444,7 +2445,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2452,10 +2453,10 @@
         <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
@@ -2469,7 +2470,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2477,10 +2478,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -2494,7 +2495,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2502,10 +2503,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -2519,7 +2520,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2527,10 +2528,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
@@ -2544,7 +2545,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2552,10 +2553,10 @@
         <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E52" s="6">
         <v>40</v>
@@ -2569,7 +2570,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2577,10 +2578,10 @@
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="6">
         <v>40</v>
@@ -2594,7 +2595,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2602,10 +2603,10 @@
         <v>59</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" s="6">
         <v>90</v>
@@ -2619,7 +2620,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2627,10 +2628,10 @@
         <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
@@ -2644,7 +2645,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2652,10 +2653,10 @@
         <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" s="6">
         <v>40</v>
@@ -2669,7 +2670,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2677,10 +2678,10 @@
         <v>62</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" s="6">
         <v>110</v>
@@ -2694,7 +2695,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2702,10 +2703,10 @@
         <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" s="6">
         <v>90</v>
@@ -2719,7 +2720,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2727,10 +2728,10 @@
         <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="6">
         <v>90</v>
@@ -2744,7 +2745,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2752,10 +2753,10 @@
         <v>65</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="6">
         <v>110</v>
@@ -2769,7 +2770,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2777,10 +2778,10 @@
         <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E61" s="6">
         <v>65</v>
@@ -2794,7 +2795,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2802,10 +2803,10 @@
         <v>67</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E62" s="6">
         <v>65</v>
@@ -2819,7 +2820,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2827,10 +2828,10 @@
         <v>68</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E63" s="6">
         <v>65</v>
@@ -2844,7 +2845,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2852,10 +2853,10 @@
         <v>69</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E64" s="6">
         <v>150</v>
@@ -2869,7 +2870,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -2877,10 +2878,10 @@
         <v>70</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="6">
         <v>35</v>
@@ -2894,7 +2895,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -2902,10 +2903,10 @@
         <v>71</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E66" s="6">
         <v>80</v>
@@ -2919,7 +2920,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -2927,10 +2928,10 @@
         <v>72</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E67" s="6">
         <v>80</v>
@@ -2944,7 +2945,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -2952,10 +2953,10 @@
         <v>73</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="6">
         <v>50</v>
@@ -2969,7 +2970,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -2977,10 +2978,10 @@
         <v>74</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -2994,7 +2995,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3002,10 +3003,10 @@
         <v>75</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -3019,7 +3020,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3027,10 +3028,10 @@
         <v>76</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E71" s="6">
         <v>80</v>
@@ -3044,7 +3045,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3052,10 +3053,10 @@
         <v>77</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E72" s="6">
         <v>20</v>
@@ -3069,7 +3070,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3077,10 +3078,10 @@
         <v>78</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E73" s="6">
         <v>40</v>
@@ -3094,7 +3095,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3102,10 +3103,10 @@
         <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
@@ -3119,7 +3120,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3127,10 +3128,10 @@
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
@@ -3144,7 +3145,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3152,10 +3153,10 @@
         <v>81</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E76" s="6">
         <v>55</v>
@@ -3169,7 +3170,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3177,10 +3178,10 @@
         <v>82</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E77" s="6">
         <v>70</v>
@@ -3194,7 +3195,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3202,10 +3203,10 @@
         <v>83</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
@@ -3219,7 +3220,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3227,10 +3228,10 @@
         <v>84</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
@@ -3244,7 +3245,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3252,10 +3253,10 @@
         <v>85</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
@@ -3269,7 +3270,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3277,10 +3278,10 @@
         <v>86</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E81" s="6">
         <v>70</v>
@@ -3294,7 +3295,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3302,10 +3303,10 @@
         <v>87</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
@@ -3319,7 +3320,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3327,10 +3328,10 @@
         <v>88</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
@@ -3344,7 +3345,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3352,10 +3353,10 @@
         <v>89</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E84" s="6">
         <v>15</v>
@@ -3369,7 +3370,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3377,10 +3378,10 @@
         <v>90</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E85" s="6">
         <v>40</v>
@@ -3394,7 +3395,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3402,10 +3403,10 @@
         <v>91</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E86" s="6">
         <v>95</v>
@@ -3419,7 +3420,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3427,10 +3428,10 @@
         <v>92</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
@@ -3444,7 +3445,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3452,10 +3453,10 @@
         <v>93</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="6">
         <v>110</v>
@@ -3469,7 +3470,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3477,10 +3478,10 @@
         <v>94</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E89" s="6">
         <v>50</v>
@@ -3494,7 +3495,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -3502,10 +3503,10 @@
         <v>95</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E90" s="6">
         <v>100</v>
@@ -3519,7 +3520,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -3527,10 +3528,10 @@
         <v>96</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
@@ -3544,7 +3545,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -3552,10 +3553,10 @@
         <v>97</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E92" s="6">
         <v>80</v>
@@ -3569,7 +3570,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -3577,10 +3578,10 @@
         <v>98</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
@@ -3594,7 +3595,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -3602,10 +3603,10 @@
         <v>99</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E94" s="6">
         <v>50</v>
@@ -3619,7 +3620,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -3627,10 +3628,10 @@
         <v>100</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E95" s="6">
         <v>90</v>
@@ -3644,7 +3645,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -3652,10 +3653,10 @@
         <v>101</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
@@ -3669,7 +3670,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -3677,10 +3678,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
@@ -3694,7 +3695,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -3702,10 +3703,10 @@
         <v>103</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
@@ -3719,7 +3720,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -3727,10 +3728,10 @@
         <v>104</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E99" s="6">
         <v>40</v>
@@ -3744,7 +3745,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -3752,10 +3753,10 @@
         <v>105</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E100" s="6">
         <v>20</v>
@@ -3769,7 +3770,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -3777,10 +3778,10 @@
         <v>106</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
@@ -3794,7 +3795,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -3802,10 +3803,10 @@
         <v>107</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
@@ -3819,7 +3820,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -3827,10 +3828,10 @@
         <v>108</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
@@ -3844,7 +3845,7 @@
       <c r="H103" s="6"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -3852,10 +3853,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
@@ -3869,7 +3870,7 @@
       <c r="H104" s="6"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -3877,10 +3878,10 @@
         <v>110</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E105" s="6">
         <v>0</v>
@@ -3894,7 +3895,7 @@
       <c r="H105" s="6"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -3902,10 +3903,10 @@
         <v>111</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -3919,7 +3920,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -3927,10 +3928,10 @@
         <v>112</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
@@ -3944,7 +3945,7 @@
       <c r="H107" s="6"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -3952,10 +3953,10 @@
         <v>113</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
@@ -3969,7 +3970,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -3977,10 +3978,10 @@
         <v>114</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -3994,7 +3995,7 @@
       <c r="H109" s="6"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -4002,10 +4003,10 @@
         <v>115</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E110" s="6">
         <v>0</v>
@@ -4019,7 +4020,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -4027,10 +4028,10 @@
         <v>116</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
@@ -4044,7 +4045,7 @@
       <c r="H111" s="6"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -4052,10 +4053,10 @@
         <v>117</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
@@ -4069,7 +4070,7 @@
       <c r="H112" s="6"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -4077,10 +4078,10 @@
         <v>118</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E113" s="6">
         <v>0</v>
@@ -4094,7 +4095,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -4102,10 +4103,10 @@
         <v>119</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
@@ -4119,7 +4120,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -4127,10 +4128,10 @@
         <v>120</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E115" s="6">
         <v>0</v>
@@ -4144,7 +4145,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -4152,10 +4153,10 @@
         <v>121</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
@@ -4169,7 +4170,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -4177,10 +4178,10 @@
         <v>122</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E117" s="6">
         <v>0</v>
@@ -4194,7 +4195,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -4202,10 +4203,10 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E118" s="6">
         <v>0</v>
@@ -4219,7 +4220,7 @@
       <c r="H118" s="6"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -4227,10 +4228,10 @@
         <v>124</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E119" s="6">
         <v>0</v>
@@ -4244,7 +4245,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -4252,10 +4253,10 @@
         <v>125</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
@@ -4269,7 +4270,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -4277,10 +4278,10 @@
         <v>126</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E121" s="6">
         <v>200</v>
@@ -4294,7 +4295,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -4302,10 +4303,10 @@
         <v>127</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E122" s="6">
         <v>100</v>
@@ -4319,7 +4320,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -4327,10 +4328,10 @@
         <v>128</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E123" s="6">
         <v>30</v>
@@ -4344,7 +4345,7 @@
       <c r="H123" s="6"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -4352,10 +4353,10 @@
         <v>129</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E124" s="6">
         <v>30</v>
@@ -4369,7 +4370,7 @@
       <c r="H124" s="6"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -4377,10 +4378,10 @@
         <v>130</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125" s="6">
         <v>65</v>
@@ -4394,7 +4395,7 @@
       <c r="H125" s="6"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -4402,10 +4403,10 @@
         <v>131</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E126" s="6">
         <v>65</v>
@@ -4419,7 +4420,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -4427,10 +4428,10 @@
         <v>132</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E127" s="6">
         <v>110</v>
@@ -4444,7 +4445,7 @@
       <c r="H127" s="6"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -4452,10 +4453,10 @@
         <v>133</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E128" s="6">
         <v>80</v>
@@ -4469,7 +4470,7 @@
       <c r="H128" s="6"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -4477,10 +4478,10 @@
         <v>134</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E129" s="6">
         <v>35</v>
@@ -4494,7 +4495,7 @@
       <c r="H129" s="6"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -4502,10 +4503,10 @@
         <v>135</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E130" s="6">
         <v>60</v>
@@ -4519,7 +4520,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -4527,10 +4528,10 @@
         <v>136</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
@@ -4544,7 +4545,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -4552,10 +4553,10 @@
         <v>137</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E132" s="6">
         <v>20</v>
@@ -4569,7 +4570,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -4577,10 +4578,10 @@
         <v>138</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E133" s="6">
         <v>10</v>
@@ -4594,7 +4595,7 @@
       <c r="H133" s="6"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -4602,10 +4603,10 @@
         <v>139</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
@@ -4619,7 +4620,7 @@
       <c r="H134" s="6"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -4627,10 +4628,10 @@
         <v>140</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
@@ -4644,7 +4645,7 @@
       <c r="H135" s="6"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -4652,10 +4653,10 @@
         <v>141</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E136" s="6">
         <v>0</v>
@@ -4669,7 +4670,7 @@
       <c r="H136" s="6"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -4677,10 +4678,10 @@
         <v>142</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E137" s="6">
         <v>130</v>
@@ -4694,7 +4695,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -4702,10 +4703,10 @@
         <v>143</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E138" s="6">
         <v>0</v>
@@ -4719,7 +4720,7 @@
       <c r="H138" s="6"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -4727,10 +4728,10 @@
         <v>144</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E139" s="6">
         <v>100</v>
@@ -4744,7 +4745,7 @@
       <c r="H139" s="6"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -4752,10 +4753,10 @@
         <v>145</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E140" s="6">
         <v>0</v>
@@ -4769,7 +4770,7 @@
       <c r="H140" s="6"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -4777,10 +4778,10 @@
         <v>146</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E141" s="6">
         <v>15</v>
@@ -4794,7 +4795,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -4802,10 +4803,10 @@
         <v>147</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E142" s="6">
         <v>80</v>
@@ -4819,7 +4820,7 @@
       <c r="H142" s="6"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -4827,10 +4828,10 @@
         <v>148</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
@@ -4844,7 +4845,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -4852,10 +4853,10 @@
         <v>149</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E144" s="6">
         <v>140</v>
@@ -4869,7 +4870,7 @@
       <c r="H144" s="6"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -4877,10 +4878,10 @@
         <v>150</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
@@ -4894,7 +4895,7 @@
       <c r="H145" s="6"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -4902,10 +4903,10 @@
         <v>151</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E146" s="6">
         <v>20</v>
@@ -4919,7 +4920,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -4927,10 +4928,10 @@
         <v>152</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E147" s="6">
         <v>70</v>
@@ -4944,7 +4945,7 @@
       <c r="H147" s="6"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -4952,10 +4953,10 @@
         <v>153</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E148" s="6">
         <v>0</v>
@@ -4969,7 +4970,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -4977,10 +4978,10 @@
         <v>154</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E149" s="6">
         <v>0</v>
@@ -4994,7 +4995,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -5002,10 +5003,10 @@
         <v>155</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
@@ -5019,7 +5020,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -5027,10 +5028,10 @@
         <v>156</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E151" s="6">
         <v>0</v>
@@ -5044,7 +5045,7 @@
       <c r="H151" s="6"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5052,10 +5053,10 @@
         <v>157</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E152" s="6">
         <v>0</v>
@@ -5069,7 +5070,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -5077,10 +5078,10 @@
         <v>158</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E153" s="6">
         <v>90</v>
@@ -5094,7 +5095,7 @@
       <c r="H153" s="6"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -5102,10 +5103,10 @@
         <v>159</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E154" s="6">
         <v>250</v>
@@ -5119,7 +5120,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -5127,10 +5128,10 @@
         <v>160</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E155" s="6">
         <v>18</v>
@@ -5144,7 +5145,7 @@
       <c r="H155" s="6"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -5152,10 +5153,10 @@
         <v>161</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E156" s="6">
         <v>50</v>
@@ -5169,7 +5170,7 @@
       <c r="H156" s="6"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -5177,10 +5178,10 @@
         <v>162</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
@@ -5194,7 +5195,7 @@
       <c r="H157" s="6"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -5202,10 +5203,10 @@
         <v>163</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E158" s="6">
         <v>75</v>
@@ -5219,7 +5220,7 @@
       <c r="H158" s="6"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -5227,10 +5228,10 @@
         <v>164</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E159" s="6">
         <v>80</v>
@@ -5244,7 +5245,7 @@
       <c r="H159" s="6"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -5252,10 +5253,10 @@
         <v>165</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E160" s="6">
         <v>0</v>
@@ -5269,7 +5270,7 @@
       <c r="H160" s="6"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -5277,10 +5278,10 @@
         <v>166</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E161" s="6">
         <v>0</v>
@@ -5294,7 +5295,7 @@
       <c r="H161" s="6"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -5302,10 +5303,10 @@
         <v>167</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E162" s="6">
         <v>80</v>
@@ -5319,7 +5320,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -5327,10 +5328,10 @@
         <v>168</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E163" s="6">
         <v>0</v>
@@ -5344,7 +5345,7 @@
       <c r="H163" s="6"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -5352,10 +5353,10 @@
         <v>169</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E164" s="6">
         <v>70</v>
@@ -5369,7 +5370,7 @@
       <c r="H164" s="6"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -5377,10 +5378,10 @@
         <v>170</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E165" s="6">
         <v>0</v>
@@ -5394,7 +5395,7 @@
       <c r="H165" s="6"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -5402,16 +5403,16 @@
         <v>171</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E166" s="6">
         <v>50</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G166" s="6">
         <v>1</v>
@@ -5419,7 +5420,7 @@
       <c r="H166" s="6"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -5427,10 +5428,10 @@
         <v>172</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E167" s="6">
         <v>0</v>
@@ -5444,7 +5445,7 @@
       <c r="H167" s="6"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -5452,10 +5453,10 @@
         <v>173</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E168" s="6">
         <v>10</v>
@@ -5469,7 +5470,7 @@
       <c r="H168" s="6"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -5477,10 +5478,10 @@
         <v>174</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E169" s="6">
         <v>40</v>
@@ -5494,7 +5495,7 @@
       <c r="H169" s="6"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -5502,10 +5503,10 @@
         <v>175</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E170" s="6">
         <v>0</v>
@@ -5519,7 +5520,7 @@
       <c r="H170" s="6"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -5527,16 +5528,16 @@
         <v>176</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E171" s="6">
         <v>0</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G171" s="6">
         <v>5</v>
@@ -5544,7 +5545,7 @@
       <c r="H171" s="6"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -5552,10 +5553,10 @@
         <v>177</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E172" s="6">
         <v>0</v>
@@ -5569,7 +5570,7 @@
       <c r="H172" s="6"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -5577,10 +5578,10 @@
         <v>178</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E173" s="6">
         <v>60</v>
@@ -5594,7 +5595,7 @@
       <c r="H173" s="6"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -5602,10 +5603,10 @@
         <v>179</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E174" s="6">
         <v>40</v>
@@ -5619,7 +5620,7 @@
       <c r="H174" s="6"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -5627,10 +5628,10 @@
         <v>180</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E175" s="6">
         <v>0</v>
@@ -5644,7 +5645,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -5652,10 +5653,10 @@
         <v>181</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E176" s="6">
         <v>0</v>
@@ -5669,7 +5670,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -5677,10 +5678,10 @@
         <v>182</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E177" s="6">
         <v>0</v>
@@ -5694,7 +5695,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -5702,10 +5703,10 @@
         <v>183</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E178" s="6">
         <v>100</v>
@@ -5719,7 +5720,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -5727,10 +5728,10 @@
         <v>184</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E179" s="6">
         <v>0</v>
@@ -5744,7 +5745,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -5752,10 +5753,10 @@
         <v>185</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E180" s="6">
         <v>0</v>
@@ -5769,7 +5770,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -5777,10 +5778,10 @@
         <v>186</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E181" s="6">
         <v>0</v>
@@ -5794,7 +5795,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -5802,10 +5803,10 @@
         <v>187</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E182" s="6">
         <v>40</v>
@@ -5819,7 +5820,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -5827,10 +5828,10 @@
         <v>188</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E183" s="6">
         <v>0</v>
@@ -5844,7 +5845,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -5852,10 +5853,10 @@
         <v>189</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E184" s="6">
         <v>40</v>
@@ -5869,7 +5870,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -5877,10 +5878,10 @@
         <v>190</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E185" s="6">
         <v>0</v>
@@ -5894,7 +5895,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -5902,10 +5903,10 @@
         <v>191</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E186" s="6">
         <v>60</v>
@@ -5919,7 +5920,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -5927,10 +5928,10 @@
         <v>192</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E187" s="6">
         <v>0</v>
@@ -5944,7 +5945,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -5952,10 +5953,10 @@
         <v>193</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E188" s="6">
         <v>0</v>
@@ -5969,7 +5970,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -5977,10 +5978,10 @@
         <v>194</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E189" s="6">
         <v>90</v>
@@ -5994,7 +5995,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -6002,10 +6003,10 @@
         <v>195</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E190" s="6">
         <v>20</v>
@@ -6019,7 +6020,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -6027,10 +6028,10 @@
         <v>196</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E191" s="6">
         <v>65</v>
@@ -6044,7 +6045,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -6052,10 +6053,10 @@
         <v>197</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E192" s="6">
         <v>0</v>
@@ -6069,7 +6070,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -6077,10 +6078,10 @@
         <v>198</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E193" s="6">
         <v>100</v>
@@ -6094,7 +6095,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -6102,10 +6103,10 @@
         <v>199</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E194" s="6">
         <v>0</v>
@@ -6119,7 +6120,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -6127,10 +6128,10 @@
         <v>200</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E195" s="6">
         <v>0</v>
@@ -6144,7 +6145,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -6152,10 +6153,10 @@
         <v>201</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E196" s="6">
         <v>0</v>
@@ -6169,7 +6170,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -6177,10 +6178,10 @@
         <v>202</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E197" s="6">
         <v>55</v>
@@ -6194,7 +6195,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -6202,10 +6203,10 @@
         <v>203</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E198" s="6">
         <v>0</v>
@@ -6219,7 +6220,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -6227,10 +6228,10 @@
         <v>204</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E199" s="6">
         <v>25</v>
@@ -6244,7 +6245,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -6252,10 +6253,10 @@
         <v>205</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E200" s="6">
         <v>0</v>
@@ -6269,7 +6270,7 @@
       <c r="H200" s="6"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -6277,10 +6278,10 @@
         <v>206</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E201" s="6">
         <v>90</v>
@@ -6294,7 +6295,7 @@
       <c r="H201" s="6"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -6302,10 +6303,10 @@
         <v>207</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E202" s="6">
         <v>0</v>
@@ -6319,7 +6320,7 @@
       <c r="H202" s="6"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -6327,10 +6328,10 @@
         <v>208</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E203" s="6">
         <v>60</v>
@@ -6344,7 +6345,7 @@
       <c r="H203" s="6"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -6352,10 +6353,10 @@
         <v>209</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E204" s="6">
         <v>0</v>
@@ -6369,7 +6370,7 @@
       <c r="H204" s="6"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E205" s="6">
         <v>0</v>
@@ -6394,7 +6395,7 @@
       <c r="H205" s="6"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -6402,10 +6403,10 @@
         <v>211</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E206" s="6">
         <v>30</v>
@@ -6419,7 +6420,7 @@
       <c r="H206" s="6"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -6427,10 +6428,10 @@
         <v>212</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E207" s="6">
         <v>40</v>
@@ -6444,7 +6445,7 @@
       <c r="H207" s="6"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -6452,10 +6453,10 @@
         <v>213</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E208" s="6">
         <v>0</v>
@@ -6469,7 +6470,7 @@
       <c r="H208" s="6"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -6477,10 +6478,10 @@
         <v>214</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E209" s="6">
         <v>0</v>
@@ -6494,7 +6495,7 @@
       <c r="H209" s="6"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -6502,10 +6503,10 @@
         <v>215</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E210" s="6">
         <v>65</v>
@@ -6519,7 +6520,7 @@
       <c r="H210" s="6"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -6527,10 +6528,10 @@
         <v>216</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E211" s="6">
         <v>10</v>
@@ -6544,7 +6545,7 @@
       <c r="H211" s="6"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -6552,10 +6553,10 @@
         <v>217</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E212" s="6">
         <v>70</v>
@@ -6569,7 +6570,7 @@
       <c r="H212" s="6"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -6577,10 +6578,10 @@
         <v>218</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E213" s="6">
         <v>0</v>
@@ -6594,7 +6595,7 @@
       <c r="H213" s="6"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -6602,10 +6603,10 @@
         <v>219</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E214" s="6">
         <v>0</v>
@@ -6619,7 +6620,7 @@
       <c r="H214" s="6"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -6627,10 +6628,10 @@
         <v>220</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E215" s="6">
         <v>0</v>
@@ -6644,7 +6645,7 @@
       <c r="H215" s="6"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -6652,10 +6653,10 @@
         <v>221</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E216" s="6">
         <v>0</v>
@@ -6669,7 +6670,7 @@
       <c r="H216" s="6"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -6677,10 +6678,10 @@
         <v>222</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E217" s="6">
         <v>0</v>
@@ -6694,7 +6695,7 @@
       <c r="H217" s="6"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -6702,10 +6703,10 @@
         <v>223</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E218" s="6">
         <v>0</v>
@@ -6719,7 +6720,7 @@
       <c r="H218" s="6"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -6727,10 +6728,10 @@
         <v>224</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E219" s="6">
         <v>0</v>
@@ -6744,7 +6745,7 @@
       <c r="H219" s="6"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -6752,10 +6753,10 @@
         <v>225</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E220" s="6">
         <v>0</v>
@@ -6769,7 +6770,7 @@
       <c r="H220" s="6"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -6777,10 +6778,10 @@
         <v>226</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E221" s="6">
         <v>0</v>
@@ -6794,7 +6795,7 @@
       <c r="H221" s="6"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -6802,10 +6803,10 @@
         <v>227</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E222" s="6">
         <v>100</v>
@@ -6819,7 +6820,7 @@
       <c r="H222" s="6"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -6827,10 +6828,10 @@
         <v>228</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E223" s="6">
         <v>0</v>
@@ -6844,7 +6845,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -6852,10 +6853,10 @@
         <v>229</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E224" s="6">
         <v>100</v>
@@ -6869,18 +6870,18 @@
       <c r="H224" s="6"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E225" s="6">
         <v>120</v>
@@ -6894,18 +6895,18 @@
       <c r="H225" s="6"/>
       <c r="I225" s="2"/>
     </row>
-    <row r="226" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E226" s="6">
         <v>60</v>
@@ -6919,18 +6920,18 @@
       <c r="H226" s="6"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E227" s="6">
         <v>0</v>
@@ -6944,18 +6945,18 @@
       <c r="H227" s="6"/>
       <c r="I227" s="2"/>
     </row>
-    <row r="228" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E228" s="6">
         <v>0</v>
@@ -6969,18 +6970,18 @@
       <c r="H228" s="6"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E229" s="6">
         <v>40</v>
@@ -6994,18 +6995,18 @@
       <c r="H229" s="6"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E230" s="6">
         <v>20</v>
@@ -7019,18 +7020,18 @@
       <c r="H230" s="6"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E231" s="6">
         <v>0</v>
@@ -7044,18 +7045,18 @@
       <c r="H231" s="6"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E232" s="6">
         <v>100</v>
@@ -7069,18 +7070,18 @@
       <c r="H232" s="6"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E233" s="6">
         <v>50</v>
@@ -7094,18 +7095,18 @@
       <c r="H233" s="6"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E234" s="6">
         <v>70</v>
@@ -7119,18 +7120,18 @@
       <c r="H234" s="6"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
@@ -7144,18 +7145,18 @@
       <c r="H235" s="6"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="6">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
@@ -7169,18 +7170,18 @@
       <c r="H236" s="6"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="6">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E237" s="6">
         <v>0</v>
@@ -7194,18 +7195,18 @@
       <c r="H237" s="6"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E238" s="6">
         <v>60</v>
@@ -7219,18 +7220,18 @@
       <c r="H238" s="6"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E239" s="6">
         <v>100</v>
@@ -7244,18 +7245,18 @@
       <c r="H239" s="6"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="6">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E240" s="6">
         <v>40</v>
@@ -7269,18 +7270,18 @@
       <c r="H240" s="6"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E241" s="6">
         <v>0</v>
@@ -7294,18 +7295,18 @@
       <c r="H241" s="6"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E242" s="6">
         <v>0</v>
@@ -7319,18 +7320,18 @@
       <c r="H242" s="6"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E243" s="6">
         <v>80</v>
@@ -7344,18 +7345,18 @@
       <c r="H243" s="6"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E244" s="6">
         <v>0</v>
@@ -7369,18 +7370,18 @@
       <c r="H244" s="6"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E245" s="6">
         <v>0</v>
@@ -7394,18 +7395,18 @@
       <c r="H245" s="6"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E246" s="6">
         <v>80</v>
@@ -7419,18 +7420,18 @@
       <c r="H246" s="6"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E247" s="6">
         <v>60</v>
@@ -7444,18 +7445,18 @@
       <c r="H247" s="6"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E248" s="6">
         <v>80</v>
@@ -7469,18 +7470,18 @@
       <c r="H248" s="6"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E249" s="6">
         <v>100</v>
@@ -7494,18 +7495,18 @@
       <c r="H249" s="6"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E250" s="6">
         <v>40</v>
@@ -7519,18 +7520,18 @@
       <c r="H250" s="6"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E251" s="6">
         <v>35</v>
@@ -7544,18 +7545,18 @@
       <c r="H251" s="6"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E252" s="6">
         <v>10</v>
@@ -7569,10 +7570,10 @@
       <c r="H252" s="6"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I254" s="1"/>
     </row>
   </sheetData>
